--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_架构组.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0_架构组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,8 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -334,12 +328,33 @@
     <t>朱拱平</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>读写分离、ip数据库地址记录日志</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter ,renterpc, renter服务窗, teleapi, partner, parnerpc, partner-papp, bs, payapi, messages,mogotasktracker,mogoda-tasktracker,openapi,rentertp</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-888
+TOPT-948</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1049,7 +1064,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1407,14 +1422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1440,7 +1455,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1573,33 +1588,69 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="189.75" customHeight="1">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="59">
+        <v>42812</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="59">
+        <v>42843</v>
+      </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="68"/>
+      <c r="L3" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42844</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="T3" s="68"/>
       <c r="U3" s="56"/>
       <c r="V3" s="67"/>
       <c r="W3" s="74"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1625,7 +1676,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1651,7 +1702,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="73"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1677,7 +1728,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1703,7 +1754,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1729,7 +1780,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="73"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1755,7 +1806,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="73"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1781,7 +1832,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="73"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1807,7 +1858,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="73"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1833,7 +1884,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="73"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1859,7 +1910,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="73"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1885,7 +1936,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="73"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1911,7 +1962,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="73"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1937,7 +1988,7 @@
       <c r="W16" s="74"/>
       <c r="X16" s="73"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1963,7 +2014,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="73"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1988,7 +2039,7 @@
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2013,7 +2064,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2038,7 +2089,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2063,7 +2114,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2088,7 +2139,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2113,7 +2164,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2138,7 +2189,7 @@
       <c r="V24" s="70"/>
       <c r="W24" s="76"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2163,7 +2214,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="76"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2188,7 +2239,7 @@
       <c r="V26" s="77"/>
       <c r="W26" s="76"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2213,7 +2264,7 @@
       <c r="V27" s="71"/>
       <c r="W27" s="76"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2238,7 +2289,7 @@
       <c r="V28" s="71"/>
       <c r="W28" s="76"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2263,7 +2314,7 @@
       <c r="V29" s="69"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2288,7 +2339,7 @@
       <c r="V30" s="56"/>
       <c r="W30" s="74"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2313,7 +2364,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2338,7 +2389,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2363,7 +2414,7 @@
       <c r="V33" s="71"/>
       <c r="W33" s="76"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2388,7 +2439,7 @@
       <c r="V34" s="56"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2413,7 +2464,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2438,7 +2489,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2463,7 +2514,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2488,7 +2539,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2513,7 +2564,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2538,7 +2589,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2563,7 +2614,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2588,7 +2639,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2613,7 +2664,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="74"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2638,7 +2689,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="74"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2663,7 +2714,7 @@
       <c r="V45" s="69"/>
       <c r="W45" s="74"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2688,7 +2739,7 @@
       <c r="V46" s="69"/>
       <c r="W46" s="74"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2713,7 +2764,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2738,7 +2789,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2763,7 +2814,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2788,7 +2839,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2813,7 +2864,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2838,7 +2889,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2863,7 +2914,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -2888,7 +2939,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2913,7 +2964,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -2938,7 +2989,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -2963,7 +3014,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -2988,7 +3039,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3013,7 +3064,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3038,7 +3089,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3063,7 +3114,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3088,7 +3139,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3113,7 +3164,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3138,7 +3189,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3163,7 +3214,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3188,7 +3239,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3213,7 +3264,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3238,7 +3289,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3263,7 +3314,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3288,7 +3339,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3313,7 +3364,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3338,7 +3389,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3363,7 +3414,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3388,7 +3439,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3413,7 +3464,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3438,7 +3489,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3463,7 +3514,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3488,7 +3539,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3513,7 +3564,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3538,7 +3589,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3563,7 +3614,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3588,7 +3639,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3613,7 +3664,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3638,7 +3689,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3663,7 +3714,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3688,7 +3739,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3713,7 +3764,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -3738,7 +3789,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -3763,7 +3814,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -3788,7 +3839,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -3813,7 +3864,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -3838,7 +3889,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -3863,7 +3914,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -3888,7 +3939,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -3913,7 +3964,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -3938,7 +3989,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -3963,7 +4014,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -3988,7 +4039,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4013,7 +4064,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4038,7 +4089,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4063,7 +4114,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4088,7 +4139,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4113,7 +4164,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4138,7 +4189,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4163,7 +4214,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4188,7 +4239,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4213,7 +4264,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4238,7 +4289,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4263,7 +4314,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4288,7 +4339,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4313,7 +4364,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4338,7 +4389,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4363,7 +4414,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4388,7 +4439,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4413,7 +4464,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4438,7 +4489,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4463,7 +4514,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4488,7 +4539,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4513,7 +4564,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4538,7 +4589,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4563,7 +4614,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4588,7 +4639,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4613,7 +4664,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4638,7 +4689,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4663,7 +4714,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4688,7 +4739,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4713,7 +4764,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -4738,7 +4789,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -4763,7 +4814,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -4788,7 +4839,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -4813,7 +4864,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -4838,7 +4889,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4863,7 +4914,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -4888,7 +4939,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -4913,7 +4964,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -4934,7 +4985,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4955,7 +5006,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -4976,7 +5027,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -4997,7 +5048,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5018,7 +5069,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5039,7 +5090,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5060,7 +5111,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5081,7 +5132,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5102,7 +5153,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5123,7 +5174,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5144,7 +5195,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5165,7 +5216,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5186,7 +5237,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5207,7 +5258,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5228,7 +5279,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5249,7 +5300,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5270,7 +5321,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5291,7 +5342,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5312,7 +5363,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5333,7 +5384,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5354,7 +5405,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5375,7 +5426,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5396,7 +5447,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5417,7 +5468,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5438,7 +5489,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5459,7 +5510,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5480,7 +5531,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5501,7 +5552,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5522,7 +5573,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5543,7 +5594,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5564,7 +5615,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5585,7 +5636,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5606,7 +5657,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5627,7 +5678,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5682,14 +5733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5709,7 +5760,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5765,7 +5816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5785,7 +5836,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5805,7 +5856,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5832,14 +5883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5851,7 +5902,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
@@ -5866,7 +5917,7 @@
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5901,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="20"/>
@@ -5914,7 +5965,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="20"/>
@@ -5927,7 +5978,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="20"/>
@@ -5940,7 +5991,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="20"/>
@@ -5953,7 +6004,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="20"/>
@@ -5966,7 +6017,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="20"/>
@@ -5979,7 +6030,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="20"/>
@@ -5992,7 +6043,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="20"/>
@@ -6005,7 +6056,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6032,14 +6083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6054,7 +6105,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6071,7 +6122,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6086,7 +6137,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6127,7 +6178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6162,7 +6213,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6177,7 +6228,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6192,7 +6243,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6207,7 +6258,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6222,7 +6273,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6237,7 +6288,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6252,7 +6303,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6267,7 +6318,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6282,7 +6333,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6297,7 +6348,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6312,7 +6363,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6327,7 +6378,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6366,14 +6417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6388,7 +6439,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6405,7 +6456,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6420,7 +6471,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6461,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6496,7 +6547,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6511,7 +6562,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6526,7 +6577,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6541,7 +6592,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6556,7 +6607,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6571,7 +6622,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6586,7 +6637,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6601,7 +6652,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6616,7 +6667,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6631,7 +6682,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6646,7 +6697,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6661,7 +6712,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6700,14 +6751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6722,7 +6773,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6739,7 +6790,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6754,7 +6805,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6795,7 +6846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6830,7 +6881,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6845,7 +6896,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6860,7 +6911,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6875,7 +6926,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6890,7 +6941,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6905,7 +6956,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6920,7 +6971,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6935,7 +6986,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6950,7 +7001,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6965,7 +7016,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6980,7 +7031,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6995,7 +7046,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7034,14 +7085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7058,7 +7109,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -7075,7 +7126,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -7090,7 +7141,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7131,7 +7182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7146,7 +7197,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7161,7 +7212,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7176,7 +7227,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7191,7 +7242,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7206,7 +7257,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7221,7 +7272,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7236,7 +7287,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7251,7 +7302,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7266,7 +7317,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7281,7 +7332,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7296,7 +7347,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7311,7 +7362,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7350,14 +7401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7368,7 +7419,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7394,7 +7445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7404,7 +7455,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7414,7 +7465,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7424,7 +7475,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7434,7 +7485,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7444,7 +7495,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7454,7 +7505,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7464,7 +7515,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7474,7 +7525,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7484,7 +7535,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7494,7 +7545,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7504,7 +7555,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7514,7 +7565,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7524,7 +7575,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7534,7 +7585,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7544,7 +7595,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7554,7 +7605,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7564,7 +7615,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
